--- a/Peaks-dataset-article/redes-ensemble-s/Teste01/content/results/metrics_19_9.xlsx
+++ b/Peaks-dataset-article/redes-ensemble-s/Teste01/content/results/metrics_19_9.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q14"/>
+  <dimension ref="A1:Q26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,331 +518,331 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_19_9_3</t>
+          <t>model_19_9_0</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9258908508476622</v>
+        <v>0.9610339121269392</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7881017354506529</v>
+        <v>0.786047014633624</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6313241381022588</v>
+        <v>0.9163624334840134</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9555079044379674</v>
+        <v>0.9314425501255987</v>
       </c>
       <c r="F2" t="n">
-        <v>0.927319481783449</v>
+        <v>0.9715516042295786</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4955682216229378</v>
+        <v>0.260566409029494</v>
       </c>
       <c r="H2" t="n">
-        <v>1.416964670743277</v>
+        <v>1.430704598307868</v>
       </c>
       <c r="I2" t="n">
-        <v>0.8843094598415557</v>
+        <v>0.407530506962936</v>
       </c>
       <c r="J2" t="n">
-        <v>1.002374988626794</v>
+        <v>0.382643712953368</v>
       </c>
       <c r="K2" t="n">
-        <v>0.9433422242341747</v>
+        <v>0.395087109958152</v>
       </c>
       <c r="L2" t="n">
-        <v>1.724832913266935</v>
+        <v>1.027558188289825</v>
       </c>
       <c r="M2" t="n">
-        <v>0.7039660656757099</v>
+        <v>0.5104570589476592</v>
       </c>
       <c r="N2" t="n">
-        <v>1.136816890742777</v>
+        <v>1.07193739299642</v>
       </c>
       <c r="O2" t="n">
-        <v>0.7339353585021742</v>
+        <v>0.5321882727388442</v>
       </c>
       <c r="P2" t="n">
-        <v>75.40410050460416</v>
+        <v>76.68979504236334</v>
       </c>
       <c r="Q2" t="n">
-        <v>120.5025060247276</v>
+        <v>121.7882005624868</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_19_9_2</t>
+          <t>model_19_9_1</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9257656992145994</v>
+        <v>0.9608017895685815</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7880956040372673</v>
+        <v>0.78558851302389</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6473069232232136</v>
+        <v>0.9126770729861605</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9546605866543609</v>
+        <v>0.9299315476201093</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9280609292375295</v>
+        <v>0.9706014698709321</v>
       </c>
       <c r="G3" t="n">
-        <v>0.4964051111694989</v>
+        <v>0.2621186136460583</v>
       </c>
       <c r="H3" t="n">
-        <v>1.417005671532819</v>
+        <v>1.433770600683365</v>
       </c>
       <c r="I3" t="n">
-        <v>0.8459729980934976</v>
+        <v>0.4254877108199381</v>
       </c>
       <c r="J3" t="n">
-        <v>1.021464450316042</v>
+        <v>0.3910771597930848</v>
       </c>
       <c r="K3" t="n">
-        <v>0.9337187555571753</v>
+        <v>0.4082824353065114</v>
       </c>
       <c r="L3" t="n">
-        <v>1.734556262782264</v>
+        <v>1.019999055789059</v>
       </c>
       <c r="M3" t="n">
-        <v>0.7045602253672136</v>
+        <v>0.5119752080384932</v>
       </c>
       <c r="N3" t="n">
-        <v>1.137047939911509</v>
+        <v>1.072365926950311</v>
       </c>
       <c r="O3" t="n">
-        <v>0.7345548128018254</v>
+        <v>0.5337710525794768</v>
       </c>
       <c r="P3" t="n">
-        <v>75.40072585846217</v>
+        <v>76.67791630765929</v>
       </c>
       <c r="Q3" t="n">
-        <v>120.4991313785856</v>
+        <v>121.7763218277827</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_19_9_4</t>
+          <t>model_19_9_2</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9259813936004641</v>
+        <v>0.9605486298944016</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7880766987218419</v>
+        <v>0.7851108158079421</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6149380815372105</v>
+        <v>0.9089042622262021</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9563552700191075</v>
+        <v>0.9283989810542582</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9265408105714462</v>
+        <v>0.9696316658356089</v>
       </c>
       <c r="G4" t="n">
-        <v>0.4949627618180407</v>
+        <v>0.2638114935529928</v>
       </c>
       <c r="H4" t="n">
-        <v>1.417132091464119</v>
+        <v>1.436964964166002</v>
       </c>
       <c r="I4" t="n">
-        <v>0.9236132123448597</v>
+        <v>0.443871022837836</v>
       </c>
       <c r="J4" t="n">
-        <v>0.9832844500934088</v>
+        <v>0.3996309633867102</v>
       </c>
       <c r="K4" t="n">
-        <v>0.9534488312191343</v>
+        <v>0.4217509302133479</v>
       </c>
       <c r="L4" t="n">
-        <v>1.715334652341984</v>
+        <v>1.012544275151854</v>
       </c>
       <c r="M4" t="n">
-        <v>0.7035358994522175</v>
+        <v>0.5136258303015852</v>
       </c>
       <c r="N4" t="n">
-        <v>1.136649734891451</v>
+        <v>1.072833298656489</v>
       </c>
       <c r="O4" t="n">
-        <v>0.733486879211981</v>
+        <v>0.5354919452495678</v>
       </c>
       <c r="P4" t="n">
-        <v>75.40654549578737</v>
+        <v>76.66504094091098</v>
       </c>
       <c r="Q4" t="n">
-        <v>120.5049510159108</v>
+        <v>121.7634464610344</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_19_9_1</t>
+          <t>model_19_9_3</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9256061182221882</v>
+        <v>0.9602747966446854</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7880582777995596</v>
+        <v>0.784614090854671</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6628790489260898</v>
+        <v>0.9050454669404151</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9538150552697241</v>
+        <v>0.9268450606503083</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9287659864413726</v>
+        <v>0.9686424705119224</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4974722300005554</v>
+        <v>0.265642617754731</v>
       </c>
       <c r="H5" t="n">
-        <v>1.417255272256241</v>
+        <v>1.440286566215734</v>
       </c>
       <c r="I5" t="n">
-        <v>0.8086215479659737</v>
+        <v>0.4626733011033373</v>
       </c>
       <c r="J5" t="n">
-        <v>1.0405136657183</v>
+        <v>0.4083039504084081</v>
       </c>
       <c r="K5" t="n">
-        <v>0.9245676068421367</v>
+        <v>0.4354887284629692</v>
       </c>
       <c r="L5" t="n">
-        <v>1.744503171533639</v>
+        <v>1.005196684918799</v>
       </c>
       <c r="M5" t="n">
-        <v>0.7053171130779087</v>
+        <v>0.5154052946514335</v>
       </c>
       <c r="N5" t="n">
-        <v>1.137342550974422</v>
+        <v>1.073338836963658</v>
       </c>
       <c r="O5" t="n">
-        <v>0.7353439227893384</v>
+        <v>0.5373471650807882</v>
       </c>
       <c r="P5" t="n">
-        <v>75.39643108607159</v>
+        <v>76.65120683167608</v>
       </c>
       <c r="Q5" t="n">
-        <v>120.494836606195</v>
+        <v>121.7496123517995</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_19_9_5</t>
+          <t>model_19_9_4</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9260369345411893</v>
+        <v>0.9599805056092973</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7880204866762991</v>
+        <v>0.7840986472094267</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5981571522005473</v>
+        <v>0.9011009288577725</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9572007654575582</v>
+        <v>0.9252700627410554</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9257240294991707</v>
+        <v>0.9676340199642534</v>
       </c>
       <c r="G6" t="n">
-        <v>0.4945913592916685</v>
+        <v>0.267610543263457</v>
       </c>
       <c r="H6" t="n">
-        <v>1.417507981671497</v>
+        <v>1.443733340244883</v>
       </c>
       <c r="I6" t="n">
-        <v>0.9638641104670154</v>
+        <v>0.481893367773339</v>
       </c>
       <c r="J6" t="n">
-        <v>0.9642360445329352</v>
+        <v>0.4170945785457499</v>
       </c>
       <c r="K6" t="n">
-        <v>0.9640500774999753</v>
+        <v>0.4494939404133925</v>
       </c>
       <c r="L6" t="n">
-        <v>1.706076054166376</v>
+        <v>0.9979494061845579</v>
       </c>
       <c r="M6" t="n">
-        <v>0.7032718957072496</v>
+        <v>0.5173108768076088</v>
       </c>
       <c r="N6" t="n">
-        <v>1.136547197770112</v>
+        <v>1.073882143490528</v>
       </c>
       <c r="O6" t="n">
-        <v>0.7332116362810267</v>
+        <v>0.5393338718144506</v>
       </c>
       <c r="P6" t="n">
-        <v>75.40804678828221</v>
+        <v>76.63644510432785</v>
       </c>
       <c r="Q6" t="n">
-        <v>120.5064523084056</v>
+        <v>121.7348506244513</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_19_9_0</t>
+          <t>model_19_9_5</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9254125167275107</v>
+        <v>0.9596661083651234</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7879897749236839</v>
+        <v>0.783564600831814</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6780329621039477</v>
+        <v>0.8970721439238218</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9529731581233134</v>
+        <v>0.9236740381979768</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9294355514516055</v>
+        <v>0.9666065506483381</v>
       </c>
       <c r="G7" t="n">
-        <v>0.498766844086917</v>
+        <v>0.2697129190829137</v>
       </c>
       <c r="H7" t="n">
-        <v>1.417713351302648</v>
+        <v>1.447304510831036</v>
       </c>
       <c r="I7" t="n">
-        <v>0.7722732264137637</v>
+        <v>0.5015239337375424</v>
       </c>
       <c r="J7" t="n">
-        <v>1.059481004340993</v>
+        <v>0.4260025638667783</v>
       </c>
       <c r="K7" t="n">
-        <v>0.9158771219429995</v>
+        <v>0.4637632822023492</v>
       </c>
       <c r="L7" t="n">
-        <v>1.754671669392793</v>
+        <v>0.9908074224388073</v>
       </c>
       <c r="M7" t="n">
-        <v>0.7062342699748554</v>
+        <v>0.5193389250604211</v>
       </c>
       <c r="N7" t="n">
-        <v>1.137699969118442</v>
+        <v>1.07446256917208</v>
       </c>
       <c r="O7" t="n">
-        <v>0.7363001249541646</v>
+        <v>0.5414482582800239</v>
       </c>
       <c r="P7" t="n">
-        <v>75.39123307748599</v>
+        <v>76.62079429660875</v>
       </c>
       <c r="Q7" t="n">
-        <v>120.4896385976094</v>
+        <v>121.7191998167322</v>
       </c>
     </row>
     <row r="8">
@@ -852,52 +852,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9260572683523806</v>
+        <v>0.9593319713394864</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7879332107262684</v>
+        <v>0.7830122956596788</v>
       </c>
       <c r="D8" t="n">
-        <v>0.58098880892728</v>
+        <v>0.8929606971391754</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9580429428412758</v>
+        <v>0.922057284634714</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9248685664926448</v>
+        <v>0.9655604245544356</v>
       </c>
       <c r="G8" t="n">
-        <v>0.4944553870026037</v>
+        <v>0.2719472949119074</v>
       </c>
       <c r="H8" t="n">
-        <v>1.41809159635122</v>
+        <v>1.450997778060235</v>
       </c>
       <c r="I8" t="n">
-        <v>1.005044263374798</v>
+        <v>0.5215572759579653</v>
       </c>
       <c r="J8" t="n">
-        <v>0.9452623923647947</v>
+        <v>0.4350262452830331</v>
       </c>
       <c r="K8" t="n">
-        <v>0.9751533881962702</v>
+        <v>0.4782917265626986</v>
       </c>
       <c r="L8" t="n">
-        <v>1.697054977300726</v>
+        <v>0.9837676940219628</v>
       </c>
       <c r="M8" t="n">
-        <v>0.7031752178529926</v>
+        <v>0.5214856612716283</v>
       </c>
       <c r="N8" t="n">
-        <v>1.136509658426374</v>
+        <v>1.075079437527102</v>
       </c>
       <c r="O8" t="n">
-        <v>0.7331108426503634</v>
+        <v>0.5436863854960987</v>
       </c>
       <c r="P8" t="n">
-        <v>75.40859670077292</v>
+        <v>76.60429400033588</v>
       </c>
       <c r="Q8" t="n">
-        <v>120.5070022208963</v>
+        <v>121.7026995204593</v>
       </c>
     </row>
     <row r="9">
@@ -907,52 +907,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9260425127897214</v>
+        <v>0.9589783462287089</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7878150218325503</v>
+        <v>0.7824419752632163</v>
       </c>
       <c r="D9" t="n">
-        <v>0.5634444423585749</v>
+        <v>0.8887670992486517</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9588801165612929</v>
+        <v>0.9204202367401142</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9239740226937594</v>
+        <v>0.9644958041985521</v>
       </c>
       <c r="G9" t="n">
-        <v>0.4945540575180489</v>
+        <v>0.2743119876559706</v>
       </c>
       <c r="H9" t="n">
-        <v>1.418881926027724</v>
+        <v>1.454811513177464</v>
       </c>
       <c r="I9" t="n">
-        <v>1.04712634936701</v>
+        <v>0.5419909057910037</v>
       </c>
       <c r="J9" t="n">
-        <v>0.926401469149549</v>
+        <v>0.4441631966401759</v>
       </c>
       <c r="K9" t="n">
-        <v>0.9867639402069376</v>
+        <v>0.4930770164961985</v>
       </c>
       <c r="L9" t="n">
-        <v>1.688273454238925</v>
+        <v>0.9768336888035057</v>
       </c>
       <c r="M9" t="n">
-        <v>0.7032453750420609</v>
+        <v>0.5237480192382312</v>
       </c>
       <c r="N9" t="n">
-        <v>1.13653689946513</v>
+        <v>1.07573228388546</v>
       </c>
       <c r="O9" t="n">
-        <v>0.7331839865762156</v>
+        <v>0.5460450567250665</v>
       </c>
       <c r="P9" t="n">
-        <v>75.40819763273036</v>
+        <v>76.58697835854795</v>
       </c>
       <c r="Q9" t="n">
-        <v>120.5066031528538</v>
+        <v>121.6853838786714</v>
       </c>
     </row>
     <row r="10">
@@ -962,52 +962,52 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9259924402185234</v>
+        <v>0.9586056766750518</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7876661411404151</v>
+        <v>0.7818538865616286</v>
       </c>
       <c r="D10" t="n">
-        <v>0.5455339855919108</v>
+        <v>0.8844937851359131</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9597106548715029</v>
+        <v>0.9187627063211257</v>
       </c>
       <c r="F10" t="n">
-        <v>0.92303989296305</v>
+        <v>0.9634130796393905</v>
       </c>
       <c r="G10" t="n">
-        <v>0.4948888930322123</v>
+        <v>0.2768040306772612</v>
       </c>
       <c r="H10" t="n">
-        <v>1.419877491901564</v>
+        <v>1.458744065032881</v>
       </c>
       <c r="I10" t="n">
-        <v>1.090086542820731</v>
+        <v>0.5628129590778285</v>
       </c>
       <c r="J10" t="n">
-        <v>0.9076900369561579</v>
+        <v>0.4534144683111159</v>
       </c>
       <c r="K10" t="n">
-        <v>0.9988882898884446</v>
+        <v>0.508113734925313</v>
       </c>
       <c r="L10" t="n">
-        <v>1.679728760544763</v>
+        <v>0.969997106662374</v>
       </c>
       <c r="M10" t="n">
-        <v>0.7034833992584418</v>
+        <v>0.5261216880886599</v>
       </c>
       <c r="N10" t="n">
-        <v>1.136629341135034</v>
+        <v>1.076420289215289</v>
       </c>
       <c r="O10" t="n">
-        <v>0.7334321439762659</v>
+        <v>0.5485197775726299</v>
       </c>
       <c r="P10" t="n">
-        <v>75.40684400025762</v>
+        <v>76.56889098729867</v>
       </c>
       <c r="Q10" t="n">
-        <v>120.505249520381</v>
+        <v>121.6672965074221</v>
       </c>
     </row>
     <row r="11">
@@ -1017,52 +1017,52 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9259073171039733</v>
+        <v>0.9582142422845636</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7874868727080248</v>
+        <v>0.7812482772971593</v>
       </c>
       <c r="D11" t="n">
-        <v>0.5272696094069634</v>
+        <v>0.8801416356320914</v>
       </c>
       <c r="E11" t="n">
-        <v>0.960533284532578</v>
+        <v>0.9170851537924773</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9220661943561923</v>
+        <v>0.9623125085872997</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4954581116911646</v>
+        <v>0.2794215542488456</v>
       </c>
       <c r="H11" t="n">
-        <v>1.421076260734413</v>
+        <v>1.462793776972961</v>
       </c>
       <c r="I11" t="n">
-        <v>1.13389565078705</v>
+        <v>0.5840191439006729</v>
       </c>
       <c r="J11" t="n">
-        <v>0.8891567809530869</v>
+        <v>0.4627774905561425</v>
       </c>
       <c r="K11" t="n">
-        <v>1.011526215870068</v>
+        <v>0.5233983028068622</v>
       </c>
       <c r="L11" t="n">
-        <v>1.671421049449584</v>
+        <v>0.9632574606794264</v>
       </c>
       <c r="M11" t="n">
-        <v>0.7038878544847642</v>
+        <v>0.5286033997704193</v>
       </c>
       <c r="N11" t="n">
-        <v>1.136786491500357</v>
+        <v>1.077142937320806</v>
       </c>
       <c r="O11" t="n">
-        <v>0.7338538176989106</v>
+        <v>0.5511071408585331</v>
       </c>
       <c r="P11" t="n">
-        <v>75.4045449324807</v>
+        <v>76.55006738072879</v>
       </c>
       <c r="Q11" t="n">
-        <v>120.5029504526041</v>
+        <v>121.6484729008522</v>
       </c>
     </row>
     <row r="12">
@@ -1072,52 +1072,52 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9257871936799149</v>
+        <v>0.9578044551220407</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7872774289353224</v>
+        <v>0.7806254771258917</v>
       </c>
       <c r="D12" t="n">
-        <v>0.5086597856914876</v>
+        <v>0.8757129945353106</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9613467894395514</v>
+        <v>0.9153878533025013</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9210526556017468</v>
+        <v>0.9611945365139667</v>
       </c>
       <c r="G12" t="n">
-        <v>0.4962613775809614</v>
+        <v>0.2821618028915325</v>
       </c>
       <c r="H12" t="n">
-        <v>1.422476812206874</v>
+        <v>1.466958444585959</v>
       </c>
       <c r="I12" t="n">
-        <v>1.178533352514709</v>
+        <v>0.6055980399220321</v>
       </c>
       <c r="J12" t="n">
-        <v>0.8708290991126489</v>
+        <v>0.4722507332551024</v>
       </c>
       <c r="K12" t="n">
-        <v>1.024681239065108</v>
+        <v>0.5389245334959851</v>
       </c>
       <c r="L12" t="n">
-        <v>1.663353691738918</v>
+        <v>0.9566176742416401</v>
       </c>
       <c r="M12" t="n">
-        <v>0.7044582156387712</v>
+        <v>0.5311890462834606</v>
       </c>
       <c r="N12" t="n">
-        <v>1.137008257821696</v>
+        <v>1.077899467467002</v>
       </c>
       <c r="O12" t="n">
-        <v>0.7344484603080539</v>
+        <v>0.5538028636966608</v>
       </c>
       <c r="P12" t="n">
-        <v>75.40130504025655</v>
+        <v>76.53054920693536</v>
       </c>
       <c r="Q12" t="n">
-        <v>120.49971056038</v>
+        <v>121.6289547270588</v>
       </c>
     </row>
     <row r="13">
@@ -1127,52 +1127,52 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9256324298976717</v>
+        <v>0.9573766249779347</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7870383260014296</v>
+        <v>0.7799857771362623</v>
       </c>
       <c r="D13" t="n">
-        <v>0.4897194488877925</v>
+        <v>0.8712090267708734</v>
       </c>
       <c r="E13" t="n">
-        <v>0.96214986447392</v>
+        <v>0.9136709401434725</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9199995270222253</v>
+        <v>0.9600594340352346</v>
       </c>
       <c r="G13" t="n">
-        <v>0.4972962837054435</v>
+        <v>0.285022705035146</v>
       </c>
       <c r="H13" t="n">
-        <v>1.424075694626783</v>
+        <v>1.471236121362158</v>
       </c>
       <c r="I13" t="n">
-        <v>1.223963826107088</v>
+        <v>0.627543970953334</v>
       </c>
       <c r="J13" t="n">
-        <v>0.852736394818256</v>
+        <v>0.4818334412932929</v>
       </c>
       <c r="K13" t="n">
-        <v>1.038350110462672</v>
+        <v>0.5546886687199069</v>
       </c>
       <c r="L13" t="n">
-        <v>1.655523385217889</v>
+        <v>0.9500796149051332</v>
       </c>
       <c r="M13" t="n">
-        <v>0.7051923735445835</v>
+        <v>0.5338751773918188</v>
       </c>
       <c r="N13" t="n">
-        <v>1.137293975573529</v>
+        <v>1.078689307733044</v>
       </c>
       <c r="O13" t="n">
-        <v>0.7352138728358332</v>
+        <v>0.5566033489673597</v>
       </c>
       <c r="P13" t="n">
-        <v>75.39713857246474</v>
+        <v>76.51037287019346</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4955440925882</v>
+        <v>121.6087783903169</v>
       </c>
     </row>
     <row r="14">
@@ -1182,52 +1182,712 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9254432801638993</v>
+        <v>0.9569313233860091</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7867699270676034</v>
+        <v>0.7793295118059744</v>
       </c>
       <c r="D14" t="n">
-        <v>0.470459599854767</v>
+        <v>0.8666325966628594</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9629414571360688</v>
+        <v>0.9119347015044326</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9189069064287323</v>
+        <v>0.9589077191129054</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4985611288461338</v>
+        <v>0.2880004388307781</v>
       </c>
       <c r="H14" t="n">
-        <v>1.425870479533142</v>
+        <v>1.475624570647617</v>
       </c>
       <c r="I14" t="n">
-        <v>1.2701606847985</v>
+        <v>0.6498429803541269</v>
       </c>
       <c r="J14" t="n">
-        <v>0.8349023801310371</v>
+        <v>0.4915240117656847</v>
       </c>
       <c r="K14" t="n">
-        <v>1.052531560543129</v>
+        <v>0.5706835151017854</v>
       </c>
       <c r="L14" t="n">
-        <v>1.64792662788933</v>
+        <v>0.943628717835501</v>
       </c>
       <c r="M14" t="n">
-        <v>0.7060886126019409</v>
+        <v>0.5366567234562315</v>
       </c>
       <c r="N14" t="n">
-        <v>1.137643175082032</v>
+        <v>1.079511402979676</v>
       </c>
       <c r="O14" t="n">
-        <v>0.7361482666453328</v>
+        <v>0.5595033112063286</v>
       </c>
       <c r="P14" t="n">
-        <v>75.39205814305834</v>
+        <v>76.48958655025875</v>
       </c>
       <c r="Q14" t="n">
-        <v>120.4904636631818</v>
+        <v>121.5879920703822</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>model_19_9_13</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.9564687825585556</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.7786569366519203</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.8619850466574879</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.9101792061529785</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.9577396638364327</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.2910934514737645</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1.480122083799702</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.6724885269514518</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.5013220608556576</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.5869052939035546</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.9372808231415357</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.5395307697191741</v>
+      </c>
+      <c r="N15" t="n">
+        <v>1.080365324507282</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0.5624997115687806</v>
+      </c>
+      <c r="P15" t="n">
+        <v>76.46822184855932</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>121.5666273686827</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>model_19_9_14</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.9559894132439857</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.7779684829919256</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.8572685997928252</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9084048036976825</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.956555721629338</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.2942989962875861</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1.484725776594124</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.6954697788205189</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.511225637272399</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.6033477080464589</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.931023155321158</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.5424933145095764</v>
+      </c>
+      <c r="N16" t="n">
+        <v>1.081250314011103</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.5655883780242233</v>
+      </c>
+      <c r="P16" t="n">
+        <v>76.44631806851244</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>121.5447235886359</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>model_19_9_15</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.9554937052339613</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.7772644073582812</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.8524860063590887</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.9066117706435901</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.9553564379673112</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.297613798033145</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1.489433933598273</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.7187733349596814</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.521233197742092</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.6200031820448498</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.9248585413013606</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.5455399142438113</v>
+      </c>
+      <c r="N17" t="n">
+        <v>1.082165467260379</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0.5687646778164757</v>
+      </c>
+      <c r="P17" t="n">
+        <v>76.42391722547862</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>121.522322745602</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>model_19_9_16</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.9549821237064733</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.7765451076776647</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.8476391823174667</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.9048002211441681</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.9541421613323029</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.3010347460630735</v>
+      </c>
+      <c r="H18" t="n">
+        <v>1.494243893874626</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.7423898596999701</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.531344105133303</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.6368668762329747</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.9187898466440739</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.5486663339982448</v>
+      </c>
+      <c r="N18" t="n">
+        <v>1.083109925464972</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0.5720241957324365</v>
+      </c>
+      <c r="P18" t="n">
+        <v>76.40105917093985</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>121.4994646910633</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>model_19_9_17</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.9544549894808909</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.7758109441776636</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.8427309490624404</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.9029705672768882</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.9529134647484593</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.3045596950567729</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1.499153248579645</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.7663056055787186</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.5415560594938877</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.6539308325363032</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.9128087339274354</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.55186927352116</v>
+      </c>
+      <c r="N19" t="n">
+        <v>1.084083096342971</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0.575363491021841</v>
+      </c>
+      <c r="P19" t="n">
+        <v>76.37777633633338</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>121.4761818564568</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>model_19_9_18</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.95391288991594</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.7750622808404803</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.8377636399142002</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.9011229490277424</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.9516707961499976</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.3081847173437383</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1.504159563762668</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.7905092033129616</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.5518682795118255</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.6711888301107187</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.9069202007081434</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.5551438708512761</v>
+      </c>
+      <c r="N20" t="n">
+        <v>1.085083895539803</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0.5787774947396511</v>
+      </c>
+      <c r="P20" t="n">
+        <v>76.35411188828039</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>121.4525174084038</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>model_19_9_19</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.9533561321955695</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.7742995259298641</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.8327399374693574</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.8992576973381156</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.9504147010569801</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.3119077587834898</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1.509260109362122</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.8149875817433815</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.5622789180845686</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.6886332928543403</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.9011185185937403</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.558487026513141</v>
+      </c>
+      <c r="N21" t="n">
+        <v>1.086111755946641</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0.5822629754593278</v>
+      </c>
+      <c r="P21" t="n">
+        <v>76.33009555961789</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>121.4285010797413</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>model_19_9_20</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.9527853279861516</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.7735230499970175</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.8276622167564064</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.8973751246682913</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.9491456490134021</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.3157247291601789</v>
+      </c>
+      <c r="H22" t="n">
+        <v>1.51445240750041</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.8397291683600796</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.5727862312592246</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.7062576998096521</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.8954035517973661</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.5618938771335552</v>
+      </c>
+      <c r="N22" t="n">
+        <v>1.087165548333259</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0.5858148627638061</v>
+      </c>
+      <c r="P22" t="n">
+        <v>76.3057691105697</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>121.4041746306931</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>model_19_9_21</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.9522007769696033</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.7727332589308951</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.822533581914053</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.8954751752060401</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.9478641768488585</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.3196336244994475</v>
+      </c>
+      <c r="H23" t="n">
+        <v>1.519733743996224</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.8647188380073012</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.5833905305438598</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.7240545955666989</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.8897731463036826</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.5653614989539414</v>
+      </c>
+      <c r="N23" t="n">
+        <v>1.088244719440733</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0.5894301084240529</v>
+      </c>
+      <c r="P23" t="n">
+        <v>76.28115972510628</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>121.3795652452297</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>model_19_9_22</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.9516030051702948</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.7719305780020345</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.8173568419307949</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.8935581985349899</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.9465708250188577</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.3236309272739088</v>
+      </c>
+      <c r="H24" t="n">
+        <v>1.525101275063522</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.8899429036714933</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.594089864786885</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.7420164743593648</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.8842318624864537</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.5688856891097795</v>
+      </c>
+      <c r="N24" t="n">
+        <v>1.089348298147148</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0.5931043306509044</v>
+      </c>
+      <c r="P24" t="n">
+        <v>76.25630305164935</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>121.3547085717728</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>model_19_9_23</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.9509925570063856</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.7711154012382846</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.8121338008948433</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.8916248050926594</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.9452660713029835</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.327712996956825</v>
+      </c>
+      <c r="H25" t="n">
+        <v>1.53055236583626</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.9153925747934135</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.6048808269175996</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.7601367008555064</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.8787679752452664</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.5724622231700752</v>
+      </c>
+      <c r="N25" t="n">
+        <v>1.090475279372827</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0.5968331251705931</v>
+      </c>
+      <c r="P25" t="n">
+        <v>76.23123412584009</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>121.3296396459635</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>model_19_9_24</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.9503698689562254</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.7702881728950632</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.8068688538764914</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.8896752070594812</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.9439507034895834</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.3318769148154611</v>
+      </c>
+      <c r="H26" t="n">
+        <v>1.536084045576418</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.941046436053375</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.6157622326809201</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.7784043343671476</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.8733904222317389</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.5760875930060124</v>
+      </c>
+      <c r="N26" t="n">
+        <v>1.091624857311584</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0.6006128345059962</v>
+      </c>
+      <c r="P26" t="n">
+        <v>76.20598223462761</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>121.304387754751</v>
       </c>
     </row>
   </sheetData>
